--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3077062.147114584</v>
+        <v>3181295.855508031</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8307376.220293172</v>
+        <v>8316289.111544777</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>208.7099749169708</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>306.491811450982</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824781</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>47.64610836378184</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.23490948286015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>256.9025280575715</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.8472762396376</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>86.73818175197515</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>155.9959758613072</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>47.40595219828022</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>258.1497363185048</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1345,16 +1347,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>169.5209788575968</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>209.772177308354</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>95.57362600055946</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>2.445727774094773</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7007259231375</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695605</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>21.44532649588036</v>
       </c>
       <c r="W19" t="n">
-        <v>60.11729550773704</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>29.24923305751745</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>51.50556704456864</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>73.74785292486325</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>120.6127326838975</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.445727774094548</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576168</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>121.6256473075354</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>119.67600794497</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>61.66004604095001</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>68.17501931583821</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>237.6564710034618</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833811</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>59.44001103519371</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>26.05480806223633</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>103.9877674501603</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>150.6726801246967</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559526</v>
+        <v>1532.706951134003</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.385526619114</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="D2" t="n">
-        <v>1145.385526619114</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E2" t="n">
-        <v>1145.385526619114</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F2" t="n">
-        <v>734.3996218295069</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G2" t="n">
-        <v>319.3271716745034</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>1919.306791198125</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559526</v>
+        <v>1919.306791198125</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1066.128102759038</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621301</v>
+        <v>1066.128102759038</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251695</v>
+        <v>776.7109327220775</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271522</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.0549803959803</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
         <v>1232.150970528558</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4583,34 +4585,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>2702.287173321647</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066533</v>
+        <v>2349.518518051532</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805453</v>
+        <v>2349.518518051532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>846.3749096777598</v>
+        <v>881.1982724490737</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498529</v>
+        <v>712.2620895211668</v>
       </c>
       <c r="D7" t="n">
-        <v>527.3220873375171</v>
+        <v>712.2620895211668</v>
       </c>
       <c r="E7" t="n">
-        <v>527.3220873375171</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.739181610489</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.16748882129</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.3749096777598</v>
+        <v>881.1982724490737</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1032.061124352532</v>
+        <v>1238.03887196831</v>
       </c>
       <c r="C8" t="n">
-        <v>1032.061124352532</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D8" t="n">
-        <v>673.795425745782</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>673.795425745782</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>666.8499249965786</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218345</v>
@@ -4814,13 +4816,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.58875505237</v>
@@ -4832,22 +4834,22 @@
         <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993395</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267231</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.03470992366</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653546</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392466</v>
+        <v>2014.778044008244</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416654</v>
+        <v>1624.638712032432</v>
       </c>
     </row>
     <row r="9">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4993,19 +4995,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1252.778279265003</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036487</v>
+        <v>998.093791059116</v>
       </c>
       <c r="W10" t="n">
-        <v>957.4360148462299</v>
+        <v>708.6766210221555</v>
       </c>
       <c r="X10" t="n">
-        <v>957.4360148462299</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.4360148462299</v>
+        <v>480.6870701241381</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5053,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,10 +5077,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5121,25 +5123,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8178837532263</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2283.378363670482</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2063.776898693423</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1774.701672037621</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V13" t="n">
-        <v>1520.017183831734</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W13" t="n">
-        <v>1230.600013794774</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1002.610462896756</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y13" t="n">
-        <v>781.8178837532263</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>710.248605371872</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597624</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597624</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597624</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746423</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,25 +5503,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5531,13 +5533,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,13 +5770,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>3079.453861511889</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>2910.517678583983</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4184417036842</v>
+        <v>2760.401039171647</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>3709.884456383676</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>3481.894905485659</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>3261.102326342129</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969303</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>3122.22696873374</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>2953.290785805833</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>2803.174146393498</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>2803.174146393498</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>3122.22696873374</v>
       </c>
     </row>
     <row r="26">
@@ -6221,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6242,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6312,19 +6314,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3195.647281583948</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C28" t="n">
-        <v>3026.711098656041</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D28" t="n">
-        <v>2876.594459243706</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3379.766178509233</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>3377.295746414188</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6440,61 +6442,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>642.8692823226941</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C31" t="n">
-        <v>473.9330993947872</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D31" t="n">
-        <v>323.8164599824514</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2326.07822707019</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1045.310326296464</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>824.5177471529338</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327652</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048583</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925226</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925226</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>297.8113689946122</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,13 +7022,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597624</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746423</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>3911.80034623246</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>3622.383176195499</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>3394.393625297482</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>3173.601046153952</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615668</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334541</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.78353867329</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667834</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694719</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740627</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385793</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.35591459056</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118215</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>2383.002557118215</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>2383.002557118215</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>2980.381044744767</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>3607.979008299374</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>4159.888738538661</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023713</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301208</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022982</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566167</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334424</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.14661340069</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635736</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>377.6556127449245</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>377.6556127449245</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F40" t="n">
-        <v>377.6556127449245</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,22 +7426,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>3639.612039348919</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474266</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>261.8464821474266</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>261.8464821474266</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2092.024396548011</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1802.949169892209</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1548.264681686322</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1258.847511649361</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1030.857960751344</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>810.0653816078141</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,13 +7666,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>2848.020469709692</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.867919098985</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.792692443183</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1501.108204237296</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.9556134883070513</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8930,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9653,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>85.45266000108514</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>216.138925578</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>21.00892946589968</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>230.6923168279476</v>
       </c>
       <c r="W19" t="n">
-        <v>226.405702828854</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>119.3662399606949</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>94.92839560200053</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>71.67319509806799</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>59.21924749803975</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.1389255780003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>26.98982571067691</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>61.35027805667463</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>103.8640922513188</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>14.48117232036623</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>106.0841272570751</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>113.417682877128</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>66.73277020259161</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>727560.7081064329</v>
+        <v>736473.5993580391</v>
       </c>
     </row>
     <row r="3">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>715402.4342039402</v>
+        <v>715402.4342039403</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>715402.4342039402</v>
+        <v>715402.4342039403</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287548</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>137930.4104072219</v>
+      </c>
+      <c r="C4" t="n">
         <v>89134.17909312015</v>
-      </c>
-      <c r="C4" t="n">
-        <v>89134.17909312011</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312011</v>
       </c>
       <c r="E4" t="n">
+        <v>9947.144321768872</v>
+      </c>
+      <c r="F4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="F4" t="n">
-        <v>9947.144321768854</v>
-      </c>
       <c r="G4" t="n">
-        <v>9947.144321768863</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768863</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26451,7 +26453,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-807401.3167508582</v>
+        <v>-627208.4177917384</v>
       </c>
       <c r="C6" t="n">
-        <v>521343.4289767345</v>
+        <v>317904.6873646284</v>
       </c>
       <c r="D6" t="n">
-        <v>521343.4289767345</v>
+        <v>521343.428976734</v>
       </c>
       <c r="E6" t="n">
-        <v>269771.1387757244</v>
+        <v>269771.1387757245</v>
       </c>
       <c r="F6" t="n">
-        <v>595183.6005830792</v>
+        <v>595183.6005830797</v>
       </c>
       <c r="G6" t="n">
         <v>595183.6005830794</v>
       </c>
       <c r="H6" t="n">
-        <v>595183.6005830794</v>
+        <v>595183.6005830788</v>
       </c>
       <c r="I6" t="n">
         <v>595183.6005830794</v>
       </c>
       <c r="J6" t="n">
-        <v>377652.3981858022</v>
+        <v>427578.422773097</v>
       </c>
       <c r="K6" t="n">
-        <v>595183.6005830793</v>
+        <v>546073.5078770253</v>
       </c>
       <c r="L6" t="n">
-        <v>595183.6005830793</v>
+        <v>595183.6005830794</v>
       </c>
       <c r="M6" t="n">
         <v>510128.5726475678</v>
       </c>
       <c r="N6" t="n">
-        <v>595183.6005830793</v>
+        <v>595183.6005830796</v>
       </c>
       <c r="O6" t="n">
-        <v>595183.6005830797</v>
+        <v>595183.6005830794</v>
       </c>
       <c r="P6" t="n">
-        <v>595183.6005830793</v>
+        <v>595183.6005830796</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022931</v>
@@ -26802,34 +26804,34 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>85.89778947034964</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>63.23928922748701</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>238.5810457574188</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.3497438692346</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>70.84973041256336</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>119.390662416416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>59.69578089459402</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>69.71367952772991</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>317.8669395727273</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>152.7719893349487</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>116.6908593480161</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>76.750821028237</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31843,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>490.5075832355672</v>
       </c>
       <c r="M12" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>610.0546826043645</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>556.7959610899859</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>354.9153144485699</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>368.6279838366847</v>
+        <v>578.1083652167725</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M36" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>434.6640573992319</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912035</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>336.3802954844301</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>351.953203455693</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402477</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>471.5003028244903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>425.4542490066526</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>220.9409070342396</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>237.2862717533515</v>
+        <v>446.7666531334392</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M36" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>300.6896499849017</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691852</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3181295.855508031</v>
+        <v>3177241.729748653</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0.8165095851517981</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>306.491811450982</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>99.6754739795649</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>47.64610836378184</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>100.977025580516</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>256.9025280575715</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>86.73818175197515</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487941</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>47.40595219828022</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>307.9106482020882</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>169.5209788575968</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.445727774094773</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>204.7007259231375</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>21.44532649588036</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>51.50556704456864</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>73.74785292486325</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.6127326838975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>121.6256473075354</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3477,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>237.6564710034618</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833811</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>103.9877674501603</v>
+        <v>196.7867454260345</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1532.706951134003</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="C2" t="n">
-        <v>1163.744434193592</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D2" t="n">
-        <v>1163.744434193592</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>777.9561815953475</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057399</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2561.514571243436</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2561.514571243436</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2307.933510507616</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1976.870623164045</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1624.101967893931</v>
       </c>
       <c r="X2" t="n">
-        <v>1919.306791198125</v>
+        <v>1250.636209632851</v>
       </c>
       <c r="Y2" t="n">
-        <v>1919.306791198125</v>
+        <v>860.4968776570395</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.0729169938204</v>
+        <v>596.8487640096978</v>
       </c>
       <c r="C4" t="n">
-        <v>198.1367340659135</v>
+        <v>596.8487640096978</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>446.732124597362</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>298.8190310149689</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>151.9290835170586</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1066.128102759038</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1066.128102759038</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>776.7109327220775</v>
+        <v>824.8383149077151</v>
       </c>
       <c r="X4" t="n">
-        <v>548.7213818240601</v>
+        <v>596.8487640096978</v>
       </c>
       <c r="Y4" t="n">
-        <v>548.7213818240601</v>
+        <v>596.8487640096978</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,22 +4567,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3223.608826073297</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3017.631078457519</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2764.100601731356</v>
       </c>
       <c r="V5" t="n">
-        <v>2702.287173321647</v>
+        <v>2433.037714387785</v>
       </c>
       <c r="W5" t="n">
-        <v>2349.518518051532</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="X5" t="n">
-        <v>2349.518518051532</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>881.1982724490737</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>712.2620895211668</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D7" t="n">
-        <v>712.2620895211668</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591993</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339183</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X7" t="n">
-        <v>1101.990851592604</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>881.1982724490737</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.03887196831</v>
+        <v>1901.535346136983</v>
       </c>
       <c r="C8" t="n">
-        <v>1190.154071768027</v>
+        <v>1532.572829196572</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1174.307130589821</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>788.518877991577</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>377.5329732019695</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883009</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539438</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269324</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008244</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032432</v>
+        <v>2288.135186201105</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>480.6870701241381</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>311.7508871962312</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962312</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1252.778279265003</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>998.093791059116</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>708.6766210221555</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>480.6870701241381</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>480.6870701241381</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
@@ -5038,13 +5038,13 @@
         <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5062,16 +5062,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5080,7 +5080,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690901</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,13 +5518,13 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5536,19 +5536,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3060.83890577277</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5752,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3079.453861511889</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2910.517678583983</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2760.401039171647</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3999.301626420637</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3709.884456383676</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3481.894905485659</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3261.102326342129</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3122.22696873374</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2953.290785805833</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2803.174146393498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2803.174146393498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3122.22696873374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6466,19 +6466,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6542,28 +6542,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>923.4916164683283</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>754.5554335404214</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3911.80034623246</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3622.383176195499</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3394.393625297482</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3173.601046153952</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7198,16 +7198,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.35591459056</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118215</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2383.002557118215</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>2383.002557118215</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>2980.381044744767</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3607.979008299374</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4159.888738538661</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023713</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797191</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797191</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3639.612039348919</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4267.210002903525</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2092.024396548011</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U43" t="n">
-        <v>1802.949169892209</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V43" t="n">
-        <v>1548.264681686322</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W43" t="n">
-        <v>1258.847511649361</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X43" t="n">
-        <v>1030.857960751344</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y43" t="n">
-        <v>810.0653816078141</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2848.020469709692</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3445.398957336244</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336244</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9556134883070513</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.138925578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>21.00892946589968</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>230.6923168279476</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>94.92839560200053</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>71.67319509806799</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.21924749803975</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>26.98982571067691</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>14.48117232036623</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823106</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>113.417682877128</v>
+        <v>20.61870490125375</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287557</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287548</v>
-      </c>
       <c r="I2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287557</v>
       </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121063</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605457</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.1790931201</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312011</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768872</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26453,13 +26453,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768841</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627208.4177917384</v>
+        <v>-627208.4177917378</v>
       </c>
       <c r="C6" t="n">
-        <v>317904.6873646284</v>
+        <v>317904.687364628</v>
       </c>
       <c r="D6" t="n">
-        <v>521343.428976734</v>
+        <v>521343.4289767348</v>
       </c>
       <c r="E6" t="n">
-        <v>269771.1387757245</v>
+        <v>269423.7595213672</v>
       </c>
       <c r="F6" t="n">
-        <v>595183.6005830797</v>
+        <v>594836.2213287228</v>
       </c>
       <c r="G6" t="n">
-        <v>595183.6005830794</v>
+        <v>594836.2213287223</v>
       </c>
       <c r="H6" t="n">
-        <v>595183.6005830788</v>
+        <v>594836.2213287228</v>
       </c>
       <c r="I6" t="n">
-        <v>595183.6005830794</v>
+        <v>594836.2213287227</v>
       </c>
       <c r="J6" t="n">
-        <v>427578.422773097</v>
+        <v>427231.04351874</v>
       </c>
       <c r="K6" t="n">
-        <v>546073.5078770253</v>
+        <v>545726.1286226681</v>
       </c>
       <c r="L6" t="n">
-        <v>595183.6005830794</v>
+        <v>594836.2213287227</v>
       </c>
       <c r="M6" t="n">
-        <v>510128.5726475678</v>
+        <v>509781.1933932107</v>
       </c>
       <c r="N6" t="n">
-        <v>595183.6005830796</v>
+        <v>594836.2213287227</v>
       </c>
       <c r="O6" t="n">
-        <v>595183.6005830794</v>
+        <v>594836.2213287228</v>
       </c>
       <c r="P6" t="n">
-        <v>595183.6005830796</v>
+        <v>594836.2213287228</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>122.6357058136426</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>63.23928922748701</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>66.63112606523929</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>238.5810457574188</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>8.210736207659849</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>70.84973041256336</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>59.69578089459402</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>83.32522828944138</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>317.8669395727273</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>103.0110774513653</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911157</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>116.6908593480161</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
     </row>
     <row r="15">
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>490.5075832355672</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>472.0729312464055</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>270.4557004614713</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>556.7959610899859</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32958,7 +32958,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>538.5853835133125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33262,7 +33262,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>578.1083652167725</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>560.1612034965808</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>434.6640573992319</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>575.5951359912035</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>336.3802954844301</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>351.953203455693</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>136.4812930471411</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>425.4542490066526</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>396.4513495912942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>446.7666531334392</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>418.0271695745625</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>300.6896499849017</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>433.4611020691852</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3177241.729748653</v>
+        <v>3179002.260051438</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.680919587016738</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8165095851517981</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>99.6754739795649</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>43.30112502764913</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>347.4416819816008</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>100.977025580516</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>61.42978662487941</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>85.4765438928259</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>307.9106482020882</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991666</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428166</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>112.3085276221492</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>31.40247677523011</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>1.799772605716168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>25.73194049497408</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>196.7867454260345</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473.8970375929177</v>
+        <v>880.645441216167</v>
       </c>
       <c r="C2" t="n">
-        <v>473.8970375929177</v>
+        <v>880.645441216167</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>880.645441216167</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>880.645441216167</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>469.6595364265594</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>53.95478615084829</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>53.95478615084829</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2561.514571243436</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2561.514571243436</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2307.933510507616</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1976.870623164045</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.101967893931</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1250.636209632851</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>860.4968776570395</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>596.8487640096978</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>596.8487640096978</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>446.732124597362</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>298.8190310149689</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>151.9290835170586</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4515,25 +4515,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W4" t="n">
-        <v>824.8383149077151</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="X4" t="n">
-        <v>596.8487640096978</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>596.8487640096978</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1303.529887077737</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,19 +4564,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3223.608826073297</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3017.631078457519</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2764.100601731356</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2433.037714387785</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2080.269059117671</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X5" t="n">
-        <v>2080.269059117671</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y5" t="n">
-        <v>1690.129727141859</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518386</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395028</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571097</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591993</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1840.954604762406</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051533</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1901.535346136983</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1532.572829196572</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1174.307130589821</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>788.518877991577</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5329732019695</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.274518176917</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>2288.135186201105</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738575</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459506</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336148</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512217</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533114</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040972</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,37 +5029,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5074,10 +5074,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5117,7 +5117,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,52 +5746,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.243410069927</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2232.388575724832</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5986,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,34 +6208,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.971224494428</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2238.116390149333</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2248.188593250933</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1959.113366595131</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1704.428878389244</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.011708352283</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>67.52345255978808</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>34.97276993489155</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>40.64330621514758</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>20.61870490125375</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>715402.4342039402</v>
+        <v>715402.4342039403</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>715402.4342039402</v>
+        <v>715402.4342039403</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287557</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="J2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121063</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605457</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931201</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26456,10 +26456,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627208.4177917378</v>
+        <v>-627208.4177917382</v>
       </c>
       <c r="C6" t="n">
-        <v>317904.687364628</v>
+        <v>317904.6873646285</v>
       </c>
       <c r="D6" t="n">
-        <v>521343.4289767348</v>
+        <v>521343.4289767342</v>
       </c>
       <c r="E6" t="n">
-        <v>269423.7595213672</v>
+        <v>269736.4008502883</v>
       </c>
       <c r="F6" t="n">
-        <v>594836.2213287228</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="G6" t="n">
-        <v>594836.2213287223</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="H6" t="n">
-        <v>594836.2213287228</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="I6" t="n">
-        <v>594836.2213287227</v>
+        <v>595148.8626576441</v>
       </c>
       <c r="J6" t="n">
-        <v>427231.04351874</v>
+        <v>427543.6848476612</v>
       </c>
       <c r="K6" t="n">
-        <v>545726.1286226681</v>
+        <v>546038.7699515895</v>
       </c>
       <c r="L6" t="n">
-        <v>594836.2213287227</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="M6" t="n">
-        <v>509781.1933932107</v>
+        <v>510093.834722132</v>
       </c>
       <c r="N6" t="n">
-        <v>594836.2213287227</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="O6" t="n">
-        <v>594836.2213287228</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="P6" t="n">
-        <v>594836.2213287228</v>
+        <v>595148.862657644</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,22 +26792,22 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26962,10 +26962,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>63.02899308545376</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>122.6357058136426</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>66.63112606523929</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>182.408530361388</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>17.83120978940673</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>8.210736207659849</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>83.32522828944138</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>200.735294312787</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>103.0110774513653</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>270.4601319683932</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911157</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>472.0729312464055</v>
+        <v>414.9172504145579</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>340.7312191630721</v>
+        <v>283.5755383312245</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
